--- a/data/trans_orig/IP25A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP25A-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22D37106-CD7F-4FF9-969E-0D0B62E58D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{894F1F17-A48B-494A-BED1-DF881BEB65F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FC6116FD-1ADE-46B5-B5EC-C2F03F12E2C7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F82FF759-CAAA-4FF8-B212-146571A19C44}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="604">
   <si>
     <t>Menores según el número de horas que emplean en ver la televisión en 2007 (Tasa respuesta: 88,64%)</t>
   </si>
@@ -122,1744 +122,1735 @@
     <t>5,49%</t>
   </si>
   <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
   </si>
   <si>
     <t>9,2%</t>
   </si>
   <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
   </si>
   <si>
     <t>7,43%</t>
   </si>
   <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
   </si>
   <si>
     <t>31,39%</t>
   </si>
   <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
   </si>
   <si>
     <t>30,75%</t>
   </si>
   <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
   </si>
   <si>
     <t>31,05%</t>
   </si>
   <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
   </si>
   <si>
     <t>52,43%</t>
   </si>
   <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
   </si>
   <si>
     <t>49,75%</t>
   </si>
   <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
   </si>
   <si>
     <t>51,03%</t>
   </si>
   <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>51,44%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según el número de horas que emplean en ver la televisión en 2012 (Tasa respuesta: 89,71%)</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>53,03%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>Menores según el número de horas que emplean en ver la televisión en 2016 (Tasa respuesta: 89,13%)</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
     <t>44,45%</t>
   </si>
   <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>Menores según el número de horas que emplean en ver la televisión en 2023 (Tasa respuesta: 98,91%)</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
   </si>
   <si>
     <t>5,42%</t>
   </si>
   <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
   </si>
   <si>
     <t>1,22%</t>
   </si>
   <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según el número de horas que emplean en ver la televisión en 2012 (Tasa respuesta: 89,71%)</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
   </si>
   <si>
     <t>47,24%</t>
   </si>
   <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
   </si>
   <si>
     <t>43,57%</t>
   </si>
   <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>53,22%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>Menores según el número de horas que emplean en ver la televisión en 2015 (Tasa respuesta: 89,13%)</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>Menores según el número de horas que emplean en ver la televisión en 2023 (Tasa respuesta: 98,91%)</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
     <t>39,01%</t>
   </si>
   <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
   </si>
 </sst>
 </file>
@@ -2271,7 +2262,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A02FCBBE-4A35-4C52-88E7-923551CC391B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E2BF785-0E73-4C2B-B806-467E1008EAF1}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3696,13 +3687,13 @@
         <v>88668</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>73</v>
+        <v>150</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3717,13 +3708,13 @@
         <v>192355</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H30" s="7">
         <v>271</v>
@@ -3732,13 +3723,13 @@
         <v>183514</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M30" s="7">
         <v>559</v>
@@ -3747,13 +3738,13 @@
         <v>375869</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3768,13 +3759,13 @@
         <v>302709</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H31" s="7">
         <v>459</v>
@@ -3783,13 +3774,13 @@
         <v>305253</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M31" s="7">
         <v>915</v>
@@ -3798,13 +3789,13 @@
         <v>607962</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>169</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3931,7 +3922,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1C14D0-E344-4F30-B881-269304833EE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB05401F-4358-4F3A-8B87-0EEA86B50A20}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4435,10 +4426,10 @@
         <v>189</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>26</v>
+        <v>190</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4453,13 +4444,13 @@
         <v>26963</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H12" s="7">
         <v>43</v>
@@ -4468,13 +4459,13 @@
         <v>30774</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M12" s="7">
         <v>81</v>
@@ -4483,13 +4474,13 @@
         <v>57737</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4504,13 +4495,13 @@
         <v>36902</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H13" s="7">
         <v>51</v>
@@ -4519,13 +4510,13 @@
         <v>33585</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M13" s="7">
         <v>101</v>
@@ -4534,13 +4525,13 @@
         <v>70487</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4555,10 +4546,10 @@
         <v>10176</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>210</v>
+        <v>73</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>211</v>
@@ -4728,10 +4719,10 @@
         <v>221</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M17" s="7">
         <v>103</v>
@@ -4740,13 +4731,13 @@
         <v>71338</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4797,7 +4788,7 @@
         <v>233</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>41</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4812,13 +4803,13 @@
         <v>223185</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H19" s="7">
         <v>274</v>
@@ -4827,10 +4818,10 @@
         <v>190507</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>238</v>
+        <v>197</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>239</v>
@@ -4896,10 +4887,10 @@
         <v>249</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4973,7 +4964,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4988,7 +4979,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -5003,7 +4994,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5018,13 +5009,13 @@
         <v>10918</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="H23" s="7">
         <v>16</v>
@@ -5033,13 +5024,13 @@
         <v>12130</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="M23" s="7">
         <v>30</v>
@@ -5048,13 +5039,13 @@
         <v>23048</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5069,13 +5060,13 @@
         <v>35397</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H24" s="7">
         <v>43</v>
@@ -5084,13 +5075,13 @@
         <v>30860</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M24" s="7">
         <v>92</v>
@@ -5099,13 +5090,13 @@
         <v>66257</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5120,13 +5111,13 @@
         <v>81503</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="H25" s="7">
         <v>113</v>
@@ -5135,13 +5126,13 @@
         <v>79397</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M25" s="7">
         <v>231</v>
@@ -5150,13 +5141,13 @@
         <v>160900</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5171,13 +5162,13 @@
         <v>23086</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H26" s="7">
         <v>38</v>
@@ -5186,13 +5177,13 @@
         <v>26667</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M26" s="7">
         <v>70</v>
@@ -5201,13 +5192,13 @@
         <v>49753</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5326,13 +5317,13 @@
         <v>60699</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="H29" s="7">
         <v>68</v>
@@ -5341,13 +5332,13 @@
         <v>48019</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="M29" s="7">
         <v>154</v>
@@ -5356,13 +5347,13 @@
         <v>108719</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5377,13 +5368,13 @@
         <v>187530</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="H30" s="7">
         <v>249</v>
@@ -5392,13 +5383,13 @@
         <v>176379</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="M30" s="7">
         <v>517</v>
@@ -5407,13 +5398,13 @@
         <v>363909</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5428,13 +5419,13 @@
         <v>342231</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="H31" s="7">
         <v>438</v>
@@ -5443,10 +5434,10 @@
         <v>303489</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>312</v>
@@ -5497,10 +5488,10 @@
         <v>319</v>
       </c>
       <c r="K32" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="M32" s="7">
         <v>282</v>
@@ -5509,13 +5500,13 @@
         <v>196698</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5591,7 +5582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD44335B-8737-44C8-A101-4FF1B09ED7F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48964CE2-C2D7-4F6A-8240-88ACFC59BDA1}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5608,7 +5599,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5993,7 +5984,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -6008,7 +5999,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -6023,7 +6014,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6038,13 +6029,13 @@
         <v>7477</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="H11" s="7">
         <v>16</v>
@@ -6053,13 +6044,13 @@
         <v>11434</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="M11" s="7">
         <v>27</v>
@@ -6068,13 +6059,13 @@
         <v>18910</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6089,13 +6080,13 @@
         <v>26649</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="H12" s="7">
         <v>23</v>
@@ -6104,13 +6095,13 @@
         <v>14769</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="M12" s="7">
         <v>61</v>
@@ -6119,13 +6110,13 @@
         <v>41418</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6140,13 +6131,13 @@
         <v>22700</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>346</v>
+        <v>116</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="H13" s="7">
         <v>31</v>
@@ -6155,13 +6146,13 @@
         <v>20766</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="M13" s="7">
         <v>64</v>
@@ -6170,13 +6161,13 @@
         <v>43467</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6191,13 +6182,13 @@
         <v>7008</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -6206,13 +6197,13 @@
         <v>4329</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>360</v>
+        <v>245</v>
       </c>
       <c r="M14" s="7">
         <v>17</v>
@@ -6221,13 +6212,13 @@
         <v>11336</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6331,7 +6322,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6346,13 +6337,13 @@
         <v>53614</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="H17" s="7">
         <v>72</v>
@@ -6361,13 +6352,13 @@
         <v>49583</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="M17" s="7">
         <v>145</v>
@@ -6376,13 +6367,13 @@
         <v>103197</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>371</v>
+        <v>171</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6397,13 +6388,13 @@
         <v>158536</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>116</v>
+        <v>369</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="H18" s="7">
         <v>234</v>
@@ -6412,13 +6403,13 @@
         <v>156459</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="M18" s="7">
         <v>458</v>
@@ -6427,13 +6418,13 @@
         <v>314995</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6448,13 +6439,13 @@
         <v>189794</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>384</v>
+        <v>276</v>
       </c>
       <c r="H19" s="7">
         <v>242</v>
@@ -6463,13 +6454,13 @@
         <v>160099</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="M19" s="7">
         <v>512</v>
@@ -6478,13 +6469,13 @@
         <v>349893</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6499,13 +6490,13 @@
         <v>47268</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>392</v>
+        <v>189</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="H20" s="7">
         <v>86</v>
@@ -6514,13 +6505,13 @@
         <v>56904</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>323</v>
+        <v>388</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>394</v>
+        <v>28</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="M20" s="7">
         <v>156</v>
@@ -6529,13 +6520,13 @@
         <v>104172</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6609,7 +6600,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6624,7 +6615,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6639,7 +6630,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6654,13 +6645,13 @@
         <v>10269</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="H23" s="7">
         <v>13</v>
@@ -6669,13 +6660,13 @@
         <v>9659</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>106</v>
+        <v>399</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="M23" s="7">
         <v>28</v>
@@ -6684,13 +6675,13 @@
         <v>19929</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>329</v>
+        <v>401</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6705,13 +6696,13 @@
         <v>50518</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="H24" s="7">
         <v>54</v>
@@ -6720,13 +6711,13 @@
         <v>37131</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="M24" s="7">
         <v>126</v>
@@ -6735,13 +6726,13 @@
         <v>87649</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>78</v>
+        <v>412</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6756,13 +6747,13 @@
         <v>72019</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>51</v>
+        <v>413</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="H25" s="7">
         <v>110</v>
@@ -6771,13 +6762,13 @@
         <v>72174</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>420</v>
       </c>
       <c r="M25" s="7">
         <v>214</v>
@@ -6786,13 +6777,13 @@
         <v>144193</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>348</v>
+        <v>419</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6807,13 +6798,13 @@
         <v>29206</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>425</v>
       </c>
       <c r="H26" s="7">
         <v>44</v>
@@ -6822,13 +6813,13 @@
         <v>29065</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>428</v>
       </c>
       <c r="M26" s="7">
         <v>87</v>
@@ -6837,13 +6828,13 @@
         <v>58271</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>430</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6962,13 +6953,13 @@
         <v>71360</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>434</v>
       </c>
       <c r="H29" s="7">
         <v>101</v>
@@ -6977,13 +6968,13 @@
         <v>70676</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>437</v>
       </c>
       <c r="M29" s="7">
         <v>200</v>
@@ -6992,13 +6983,13 @@
         <v>142036</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>97</v>
+        <v>436</v>
       </c>
       <c r="P29" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7013,13 +7004,13 @@
         <v>235703</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>442</v>
       </c>
       <c r="H30" s="7">
         <v>311</v>
@@ -7028,13 +7019,13 @@
         <v>208359</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>445</v>
       </c>
       <c r="M30" s="7">
         <v>645</v>
@@ -7043,13 +7034,13 @@
         <v>444061</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7064,13 +7055,13 @@
         <v>284512</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>451</v>
       </c>
       <c r="H31" s="7">
         <v>383</v>
@@ -7079,13 +7070,13 @@
         <v>253039</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>454</v>
       </c>
       <c r="M31" s="7">
         <v>790</v>
@@ -7094,13 +7085,13 @@
         <v>537552</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7115,13 +7106,13 @@
         <v>83481</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>459</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>460</v>
       </c>
       <c r="H32" s="7">
         <v>137</v>
@@ -7130,13 +7121,13 @@
         <v>90298</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>463</v>
       </c>
       <c r="M32" s="7">
         <v>260</v>
@@ -7145,13 +7136,13 @@
         <v>173779</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>465</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7227,7 +7218,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64B83036-6680-46EB-94CD-A5943E98AC84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E20EABE1-EAC4-44D0-84CF-C00F99ADE5F8}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7244,7 +7235,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7653,7 +7644,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -7668,7 +7659,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -7683,7 +7674,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7698,13 +7689,13 @@
         <v>2239</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>472</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>473</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -7713,13 +7704,13 @@
         <v>656</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -7728,13 +7719,13 @@
         <v>2895</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>252</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>477</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7749,13 +7740,13 @@
         <v>9926</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>478</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H12" s="7">
         <v>10</v>
@@ -7764,13 +7755,13 @@
         <v>8622</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>481</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>482</v>
       </c>
       <c r="M12" s="7">
         <v>24</v>
@@ -7779,13 +7770,13 @@
         <v>18549</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>484</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7800,13 +7791,13 @@
         <v>31510</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>487</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>488</v>
       </c>
       <c r="H13" s="7">
         <v>32</v>
@@ -7815,13 +7806,13 @@
         <v>25262</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>490</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>491</v>
       </c>
       <c r="M13" s="7">
         <v>74</v>
@@ -7830,13 +7821,13 @@
         <v>56773</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>493</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7851,13 +7842,13 @@
         <v>14522</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>496</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>497</v>
       </c>
       <c r="H14" s="7">
         <v>20</v>
@@ -7866,10 +7857,10 @@
         <v>12934</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>498</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>499</v>
@@ -7881,10 +7872,10 @@
         <v>27455</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>500</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>501</v>
@@ -7991,7 +7982,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>506</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8006,13 +7997,13 @@
         <v>8776</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>508</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>509</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
@@ -8021,13 +8012,13 @@
         <v>14521</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>511</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>512</v>
+        <v>54</v>
       </c>
       <c r="M17" s="7">
         <v>32</v>
@@ -8036,13 +8027,13 @@
         <v>23297</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>513</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8057,10 +8048,10 @@
         <v>55435</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>515</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>407</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>516</v>
@@ -8075,10 +8066,10 @@
         <v>517</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>518</v>
+        <v>260</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>177</v>
+        <v>259</v>
       </c>
       <c r="M18" s="7">
         <v>142</v>
@@ -8087,13 +8078,13 @@
         <v>99232</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="P18" s="7" t="s">
-        <v>520</v>
-      </c>
       <c r="Q18" s="7" t="s">
-        <v>439</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8108,13 +8099,13 @@
         <v>234587</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>522</v>
-      </c>
       <c r="G19" s="7" t="s">
-        <v>523</v>
+        <v>239</v>
       </c>
       <c r="H19" s="7">
         <v>296</v>
@@ -8123,13 +8114,13 @@
         <v>208289</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>526</v>
+        <v>421</v>
       </c>
       <c r="M19" s="7">
         <v>602</v>
@@ -8138,13 +8129,13 @@
         <v>442877</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8159,13 +8150,13 @@
         <v>191072</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>456</v>
+        <v>527</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H20" s="7">
         <v>253</v>
@@ -8174,13 +8165,13 @@
         <v>176185</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>532</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>534</v>
       </c>
       <c r="M20" s="7">
         <v>510</v>
@@ -8189,13 +8180,13 @@
         <v>367257</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>535</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8284,7 +8275,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>472</v>
+        <v>536</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -8299,7 +8290,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8314,13 +8305,13 @@
         <v>3889</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>540</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>541</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -8329,13 +8320,13 @@
         <v>2968</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="K23" s="7" t="s">
-        <v>543</v>
-      </c>
       <c r="L23" s="7" t="s">
-        <v>544</v>
+        <v>261</v>
       </c>
       <c r="M23" s="7">
         <v>8</v>
@@ -8344,13 +8335,13 @@
         <v>6857</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>504</v>
+        <v>544</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>546</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8365,13 +8356,13 @@
         <v>18810</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>547</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>549</v>
       </c>
       <c r="H24" s="7">
         <v>25</v>
@@ -8380,13 +8371,13 @@
         <v>17155</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>551</v>
+        <v>260</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="M24" s="7">
         <v>47</v>
@@ -8395,13 +8386,13 @@
         <v>35965</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8416,13 +8407,13 @@
         <v>81778</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="H25" s="7">
         <v>90</v>
@@ -8431,13 +8422,13 @@
         <v>62389</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="M25" s="7">
         <v>202</v>
@@ -8446,13 +8437,13 @@
         <v>144167</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>562</v>
+        <v>525</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8467,13 +8458,13 @@
         <v>70106</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="H26" s="7">
         <v>109</v>
@@ -8482,13 +8473,13 @@
         <v>67777</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="M26" s="7">
         <v>209</v>
@@ -8497,13 +8488,13 @@
         <v>137883</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8586,13 +8577,13 @@
         <v>833</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -8601,13 +8592,13 @@
         <v>833</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8622,13 +8613,13 @@
         <v>14905</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>509</v>
+        <v>575</v>
       </c>
       <c r="H29" s="7">
         <v>25</v>
@@ -8637,13 +8628,13 @@
         <v>18144</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>507</v>
+        <v>577</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>406</v>
+        <v>578</v>
       </c>
       <c r="M29" s="7">
         <v>44</v>
@@ -8652,13 +8643,13 @@
         <v>33049</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>580</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>581</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8673,13 +8664,13 @@
         <v>84172</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>213</v>
+        <v>483</v>
       </c>
       <c r="F30" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>583</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>584</v>
       </c>
       <c r="H30" s="7">
         <v>100</v>
@@ -8688,13 +8679,13 @@
         <v>69574</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>585</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>586</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>587</v>
       </c>
       <c r="M30" s="7">
         <v>213</v>
@@ -8703,13 +8694,13 @@
         <v>153746</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>588</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>589</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8724,13 +8715,13 @@
         <v>347875</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>591</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>592</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>593</v>
       </c>
       <c r="H31" s="7">
         <v>419</v>
@@ -8739,13 +8730,13 @@
         <v>297112</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>594</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>595</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>596</v>
       </c>
       <c r="M31" s="7">
         <v>879</v>
@@ -8754,13 +8745,13 @@
         <v>644987</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>205</v>
+        <v>595</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>597</v>
+        <v>163</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8775,13 +8766,13 @@
         <v>275699</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>599</v>
+        <v>414</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>455</v>
+        <v>598</v>
       </c>
       <c r="H32" s="7">
         <v>382</v>
@@ -8790,13 +8781,13 @@
         <v>256896</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>601</v>
+        <v>200</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="M32" s="7">
         <v>762</v>
@@ -8805,13 +8796,13 @@
         <v>532595</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
